--- a/単体テスト設計.xlsx
+++ b/単体テスト設計.xlsx
@@ -645,7 +645,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy年m月d日"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -673,6 +673,7 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
   </fonts>
   <fills count="5">
     <fill>
@@ -917,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1018,6 +1019,30 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2420,162 +2445,162 @@
       </c>
     </row>
     <row r="2" ht="36.0" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="10">
+      <c r="F2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="39">
         <v>44583.0</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="40" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="41" t="s">
         <v>110</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="F3" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="39">
         <v>44583.0</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="40" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="36" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="F4" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="39">
         <v>44583.0</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="40" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="F5" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="39">
         <v>44583.0</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="40" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="F6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="39">
         <v>44583.0</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="40" t="s">
         <v>17</v>
       </c>
     </row>
